--- a/04_Projektstrukturplan/Meilensteinplan.xlsx
+++ b/04_Projektstrukturplan/Meilensteinplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982E0A8-BAC1-4F25-9084-55DAF305DFDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E45491-2EA3-4EDD-AE06-234860809EE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1100" windowWidth="10800" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitachse" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Projektzeitachse!$B$1:$M$15</definedName>
     <definedName name="Projektende">Projektzeitachse!#REF!</definedName>
-    <definedName name="Projektstart">Projektzeitachse!$N$19</definedName>
+    <definedName name="Projektstart">Projektzeitachse!$N$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Projektmeilensteine</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Check 1: Projektstart</t>
-  </si>
-  <si>
     <t>Hussein</t>
   </si>
   <si>
@@ -111,13 +108,49 @@
   </si>
   <si>
     <t>Stand Zwischenbericht</t>
+  </si>
+  <si>
+    <t>Projektinitialisierung</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>ÓÓÓ</t>
+  </si>
+  <si>
+    <t>Projektstart:</t>
+  </si>
+  <si>
+    <t>Projektende:</t>
+  </si>
+  <si>
+    <t>nicht gestartet</t>
+  </si>
+  <si>
+    <t>in Arbeit, geplant</t>
+  </si>
+  <si>
+    <t>¿¿¿</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>¢¢¢</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -190,13 +223,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -209,8 +235,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF99D709"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF99D709"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +302,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,16 +326,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,11 +350,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,47 +383,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,9 +407,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Notiz" xfId="7" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -341,39 +468,17 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -392,21 +497,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -424,21 +515,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -456,21 +534,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -489,21 +571,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -514,12 +582,6 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -531,12 +593,6 @@
         <vertAlign val="baseline"/>
         <color auto="1"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -580,11 +636,12 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="Projektzeitachse" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="Projektzeitachse" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Projektzeitachse" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
+    <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{55C79D85-C240-43AB-81B5-12B031109ECC}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -664,7 +721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04D3355C-BA8C-495E-BBF1-3ECF28458240}" type="CELLRANGE">
+                    <a:fld id="{BAE89714-21CC-4D8D-B3ED-828044810C99}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -674,7 +731,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{24D68B10-0074-44FE-9630-D34365C299B5}" type="CATEGORYNAME">
+                    <a:fld id="{5515B827-597F-46CF-A9D8-6B2F7D8E9EC0}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -715,7 +772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B2475D0-69C5-43BE-8815-29EB61B1A731}" type="CELLRANGE">
+                    <a:fld id="{87BC5058-FB9A-408F-9FFB-CF9CD1BFB0EE}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -725,7 +782,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{F7F53AF1-8712-4AB3-8A57-AEE178CE2ED4}" type="CATEGORYNAME">
+                    <a:fld id="{55A16C2D-6E63-48C4-A55B-1E4728B1FDEF}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -766,7 +823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E53762A3-0E45-4ABE-AFFE-29EEB71C4D7E}" type="CELLRANGE">
+                    <a:fld id="{E2A0B316-D260-4BA9-BD89-A1105BEC9565}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -776,7 +833,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{D8316282-0F89-4169-A2D2-8106A07DDBF8}" type="CATEGORYNAME">
+                    <a:fld id="{95824DC0-2CAF-4689-A6F3-8F5C82F9D03C}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -817,7 +874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E0A27EF-709C-445E-8D37-9784F050A2FA}" type="CELLRANGE">
+                    <a:fld id="{49DBEB1A-7ED1-4E6B-A66F-7948FA5D7556}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -827,7 +884,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{D0F21631-EC4F-43EC-8BC6-0DFAB5C94730}" type="CATEGORYNAME">
+                    <a:fld id="{14F291CA-1DBF-42C8-A987-4249CECF0557}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -868,7 +925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3444871-2370-484E-8F48-5594218676BF}" type="CELLRANGE">
+                    <a:fld id="{A8F40B5F-3100-4875-9F2D-08DFA9A40333}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -878,7 +935,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{FFA34D23-D127-4F11-A8C3-68DE6E570D5B}" type="CATEGORYNAME">
+                    <a:fld id="{9755902F-40F0-4F28-8F5B-A01FB7A4B164}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -919,7 +976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAB7C5AB-2A6F-4FE9-9147-6B1F179EC16E}" type="CELLRANGE">
+                    <a:fld id="{C369706D-3BDC-49B6-AF12-A6DECA4EDAF1}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -929,7 +986,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7E48CB44-FA42-471E-9561-D4D2CEFADEF1}" type="CATEGORYNAME">
+                    <a:fld id="{9C7CC62B-2A39-40B9-8055-5AC1F9EA8966}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -970,7 +1027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18B40FD6-F1F3-450B-8382-6616B6D57669}" type="CELLRANGE">
+                    <a:fld id="{67C5CE07-2720-4B27-9C51-97B539B7B7A1}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -980,7 +1037,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{0867050C-EB46-4430-9126-2820E7EE1D01}" type="CATEGORYNAME">
+                    <a:fld id="{E88306C0-D785-4582-8199-5B23EA7EE708}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1021,7 +1078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC662306-E0F3-4552-8E47-F57E0BA0E060}" type="CELLRANGE">
+                    <a:fld id="{21AB4829-0252-4627-8723-B83A84C47508}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1031,7 +1088,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{34E2602A-132D-42D5-9074-F3544B383C9E}" type="CATEGORYNAME">
+                    <a:fld id="{D37C239A-72D0-4ACA-8B82-C3DEF8413E9C}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1072,7 +1129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63CE79B5-B535-4A98-B9E7-5F29A35A0461}" type="CELLRANGE">
+                    <a:fld id="{C90C4EFB-85CF-4E00-9F3D-A3220FED3FC0}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1082,7 +1139,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{5A254172-3F5C-471C-8436-33D7CBAE1113}" type="CATEGORYNAME">
+                    <a:fld id="{84742BD5-2089-49EC-9C52-BA4A8F79FBD2}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1123,7 +1180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBB9B8AA-9420-40F8-9C85-F3BC1525C951}" type="CELLRANGE">
+                    <a:fld id="{65C45015-3B9C-4987-AA98-E619288A6CAB}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1133,7 +1190,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{DC2410C7-6BA5-4C92-855C-89BF0E121613}" type="CATEGORYNAME">
+                    <a:fld id="{437EBC7E-0E37-443E-8D1E-A51BFDEC7F6C}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1390,7 +1447,7 @@
                   <c:v>1.Kick-Off Meeting</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Check 1: Projektstart</c:v>
+                  <c:v>Projektinitialisierung</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Start Planung &amp; Projektdefinition</c:v>
@@ -1628,7 +1685,7 @@
                   <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43968</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,22 +2434,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Projektdetails" displayName="Projektdetails" ref="C19:G30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="C19:G30" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Projektdetails" displayName="Projektdetails" ref="C19:H30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Notiz" dataCellStyle="Notiz">
+  <autoFilter ref="C19:H30" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Meilenstein" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Spalte1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Basislinie" dataDxfId="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" dataDxfId="5" dataCellStyle="Notiz"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Meilenstein" dataDxfId="4" dataCellStyle="Notiz"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="3" dataCellStyle="Notiz"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Spalte1" dataDxfId="2" dataCellStyle="Notiz"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Basislinie" dataDxfId="1" dataCellStyle="Notiz">
       <calculatedColumnFormula>0</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{03EB40A4-8261-4590-A2B4-DD1E87E2BAB3}" name="Status" dataDxfId="0" dataCellStyle="Notiz"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2665,113 +2724,131 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N38"/>
+  <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="9" customWidth="1"/>
     <col min="4" max="4" width="35.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="28.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.3984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.296875" style="3" customWidth="1"/>
-    <col min="9" max="12" width="9.09765625" style="3"/>
+    <col min="9" max="9" width="9.09765625" style="3"/>
+    <col min="10" max="10" width="11.296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.8984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="2.69921875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.09765625" style="3"/>
+    <col min="14" max="19" width="11.59765625" style="3" customWidth="1"/>
+    <col min="20" max="24" width="12.5" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7">
+        <f>C20</f>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="7">
+        <f>C30</f>
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
       <c r="G12" s="7"/>
       <c r="J12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="G13" s="7"/>
       <c r="J13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="G14" s="7"/>
       <c r="J14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="G15" s="7"/>
       <c r="J15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="2:13" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="G16" s="7"/>
       <c r="J16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B17" s="6"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
@@ -2784,7 +2861,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2796,330 +2873,353 @@
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="H19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="K19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="24">
         <v>43927</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="23">
         <v>5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="H20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="K20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="C21" s="24">
         <v>43935</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="26">
         <v>-5</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="26">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="H21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="K21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="C22" s="24">
         <v>43935</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="F22" s="23">
         <v>5</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+      <c r="H22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23">
         <v>2</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="24">
         <v>43936</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="10">
+      <c r="E23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="23">
         <v>-5</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+      <c r="H23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="24">
         <v>43942</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="23">
         <v>5</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="H24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="24">
         <v>43949</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="D25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="26">
         <v>-5</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="H25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23">
+        <v>3.8</v>
+      </c>
+      <c r="C26" s="24">
         <v>43953</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="D26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="26">
         <v>5</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+      <c r="H26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23">
         <v>4</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="24">
         <v>43953</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="F27" s="26">
         <v>-5</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="H27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="24">
         <v>43961</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="D28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="26">
         <v>5</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+      <c r="H28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23">
         <v>5</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="24">
         <v>43961</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="F29" s="26">
         <v>-5</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="C30" s="18">
-        <v>43968</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="H29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="C30" s="24">
+        <v>43970</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="23">
         <v>5</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="G31" s="6"/>
@@ -3130,9 +3230,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="G32" s="6"/>
@@ -3145,7 +3245,7 @@
     </row>
     <row r="33" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
@@ -3158,7 +3258,7 @@
     </row>
     <row r="34" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
@@ -3171,7 +3271,7 @@
     </row>
     <row r="35" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
@@ -3184,7 +3284,7 @@
     </row>
     <row r="36" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
@@ -3197,7 +3297,7 @@
     </row>
     <row r="37" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
@@ -3209,7 +3309,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3217,12 +3317,41 @@
   <mergeCells count="1">
     <mergeCell ref="B1:M1"/>
   </mergeCells>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J30">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J38" r:id="rId1" xr:uid="{563C1FC0-3E70-44A3-B359-7692D73C017D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="B25" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>

--- a/04_Projektstrukturplan/Meilensteinplan.xlsx
+++ b/04_Projektstrukturplan/Meilensteinplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E45491-2EA3-4EDD-AE06-234860809EE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFFDEC-9CD6-4AE2-932A-CA54D59D5D2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="320" windowWidth="9240" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitachse" sheetId="1" r:id="rId1"/>
@@ -404,9 +404,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -456,6 +453,9 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -721,7 +721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAE89714-21CC-4D8D-B3ED-828044810C99}" type="CELLRANGE">
+                    <a:fld id="{68A7C704-173C-4ACE-B884-070808BFC52C}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -731,7 +731,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{5515B827-597F-46CF-A9D8-6B2F7D8E9EC0}" type="CATEGORYNAME">
+                    <a:fld id="{2020A715-0A5C-4FFB-A98A-CB2BFD09D262}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -772,7 +772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87BC5058-FB9A-408F-9FFB-CF9CD1BFB0EE}" type="CELLRANGE">
+                    <a:fld id="{BB123F78-9F11-4968-A38C-71B6B199D2B6}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -782,7 +782,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{55A16C2D-6E63-48C4-A55B-1E4728B1FDEF}" type="CATEGORYNAME">
+                    <a:fld id="{D1B68A19-C108-49E9-9D44-377B606EE7F4}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -823,7 +823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2A0B316-D260-4BA9-BD89-A1105BEC9565}" type="CELLRANGE">
+                    <a:fld id="{08606C36-BC03-4998-B774-4BC68D772F46}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -833,7 +833,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{95824DC0-2CAF-4689-A6F3-8F5C82F9D03C}" type="CATEGORYNAME">
+                    <a:fld id="{B90E8931-94EF-4135-8542-555EE0394E52}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -874,7 +874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49DBEB1A-7ED1-4E6B-A66F-7948FA5D7556}" type="CELLRANGE">
+                    <a:fld id="{57BF1E7A-F5B9-400C-96BD-DB6CC36BFA79}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -884,7 +884,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{14F291CA-1DBF-42C8-A987-4249CECF0557}" type="CATEGORYNAME">
+                    <a:fld id="{4118FF18-477B-4CB6-9399-BE24A5978F7C}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -925,7 +925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8F40B5F-3100-4875-9F2D-08DFA9A40333}" type="CELLRANGE">
+                    <a:fld id="{94FF09E4-0CE6-479C-8AF4-83D0480BF767}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -935,7 +935,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{9755902F-40F0-4F28-8F5B-A01FB7A4B164}" type="CATEGORYNAME">
+                    <a:fld id="{450B4432-504F-4345-B2A7-4F9B75DCC850}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -976,7 +976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C369706D-3BDC-49B6-AF12-A6DECA4EDAF1}" type="CELLRANGE">
+                    <a:fld id="{6AA015B4-E097-4F7E-8788-82C5A5D761F3}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -986,7 +986,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{9C7CC62B-2A39-40B9-8055-5AC1F9EA8966}" type="CATEGORYNAME">
+                    <a:fld id="{03F26B3A-C4AF-464B-8A67-5AE3F7FE2AAC}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1027,7 +1027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67C5CE07-2720-4B27-9C51-97B539B7B7A1}" type="CELLRANGE">
+                    <a:fld id="{257581FD-6A09-42CC-8EC0-EB9D31233180}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1037,7 +1037,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{E88306C0-D785-4582-8199-5B23EA7EE708}" type="CATEGORYNAME">
+                    <a:fld id="{C033B970-773A-4F30-AC47-75043BD1C9F0}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1078,7 +1078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21AB4829-0252-4627-8723-B83A84C47508}" type="CELLRANGE">
+                    <a:fld id="{FFD84288-9F16-4DB4-B4C7-98E231B0F540}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1088,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{D37C239A-72D0-4ACA-8B82-C3DEF8413E9C}" type="CATEGORYNAME">
+                    <a:fld id="{BC55AA39-B124-4219-A03B-F7BCB165622F}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1129,7 +1129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C90C4EFB-85CF-4E00-9F3D-A3220FED3FC0}" type="CELLRANGE">
+                    <a:fld id="{557880EC-3AF7-4206-B83A-B0C11DE86944}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1139,7 +1139,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{84742BD5-2089-49EC-9C52-BA4A8F79FBD2}" type="CATEGORYNAME">
+                    <a:fld id="{A7746CF4-D539-477F-AED0-CA25C631E90C}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1180,7 +1180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65C45015-3B9C-4987-AA98-E619288A6CAB}" type="CELLRANGE">
+                    <a:fld id="{FBA852DD-DCA5-45F9-9CA0-6816F5D8DC81}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1190,7 +1190,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{437EBC7E-0E37-443E-8D1E-A51BFDEC7F6C}" type="CATEGORYNAME">
+                    <a:fld id="{12817C03-EEA3-47B2-B43B-BD9DBFADECBE}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -2726,8 +2726,8 @@
   </sheetPr>
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2751,20 +2751,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2876,147 +2876,147 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>43927</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>5</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>1.6</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>43935</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>-5</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>1.9</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>43935</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>5</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>2</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>43936</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>-5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="10"/>
@@ -3024,26 +3024,26 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>3</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>43942</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>5</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="13"/>
@@ -3051,26 +3051,26 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>43949</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>-5</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="14"/>
@@ -3078,26 +3078,26 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>3.8</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>43953</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>5</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="14"/>
@@ -3106,26 +3106,26 @@
       <c r="M26" s="14"/>
     </row>
     <row r="27" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>4</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>43953</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>-5</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I27" s="14"/>
@@ -3134,26 +3134,26 @@
       <c r="M27" s="14"/>
     </row>
     <row r="28" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>43961</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <v>5</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="14"/>
@@ -3162,26 +3162,26 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>5</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>43961</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>-5</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="14"/>
@@ -3190,26 +3190,26 @@
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23">
-        <v>5.7</v>
-      </c>
-      <c r="C30" s="24">
+      <c r="B30" s="22">
+        <v>5.6</v>
+      </c>
+      <c r="C30" s="23">
         <v>43970</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>5</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="14"/>

--- a/04_Projektstrukturplan/Meilensteinplan.xlsx
+++ b/04_Projektstrukturplan/Meilensteinplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFFDEC-9CD6-4AE2-932A-CA54D59D5D2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7426E6B6-F6E3-42C8-B11D-0E0C3F6874FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="320" windowWidth="9240" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitachse" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Projektmeilensteine</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Leonard </t>
-  </si>
-  <si>
-    <t>https://www.tagungsplaner.de/erfolgreiche-veranstaltungsorganisation/</t>
   </si>
   <si>
     <t>Team</t>
@@ -721,7 +718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68A7C704-173C-4ACE-B884-070808BFC52C}" type="CELLRANGE">
+                    <a:fld id="{8EA144FA-2885-42F0-8232-F8150AFAA295}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -731,7 +728,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{2020A715-0A5C-4FFB-A98A-CB2BFD09D262}" type="CATEGORYNAME">
+                    <a:fld id="{429CC488-ECA6-402A-A634-D4DC43C72A19}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -772,7 +769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB123F78-9F11-4968-A38C-71B6B199D2B6}" type="CELLRANGE">
+                    <a:fld id="{85832945-5002-4134-9B3C-912E97D4779D}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -782,7 +779,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{D1B68A19-C108-49E9-9D44-377B606EE7F4}" type="CATEGORYNAME">
+                    <a:fld id="{0532C8F9-AEB1-4803-9B18-63C55E960B24}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -823,7 +820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08606C36-BC03-4998-B774-4BC68D772F46}" type="CELLRANGE">
+                    <a:fld id="{6461E3BA-CA48-4E79-9ED0-AE4D1B9CCBC8}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -833,7 +830,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{B90E8931-94EF-4135-8542-555EE0394E52}" type="CATEGORYNAME">
+                    <a:fld id="{E36C0BBB-FDF2-4EC5-90E4-45D35476CD6B}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -874,7 +871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57BF1E7A-F5B9-400C-96BD-DB6CC36BFA79}" type="CELLRANGE">
+                    <a:fld id="{A4B4ABF2-4C10-4F7E-B253-881293AC000A}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -884,7 +881,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{4118FF18-477B-4CB6-9399-BE24A5978F7C}" type="CATEGORYNAME">
+                    <a:fld id="{B7692A6B-6A22-472A-88DB-CCAD80117413}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -925,7 +922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94FF09E4-0CE6-479C-8AF4-83D0480BF767}" type="CELLRANGE">
+                    <a:fld id="{81A4BD85-ED1A-4FD9-B813-27938AAEECBD}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -935,7 +932,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{450B4432-504F-4345-B2A7-4F9B75DCC850}" type="CATEGORYNAME">
+                    <a:fld id="{60862DCA-7462-4CCB-9532-09F24F9E1D02}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -976,7 +973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AA015B4-E097-4F7E-8788-82C5A5D761F3}" type="CELLRANGE">
+                    <a:fld id="{682D7FE2-99D0-48CE-9E8F-AA7BD5578858}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -986,7 +983,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{03F26B3A-C4AF-464B-8A67-5AE3F7FE2AAC}" type="CATEGORYNAME">
+                    <a:fld id="{FC20C965-9E63-4086-B35F-523A3FDDCD51}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1027,7 +1024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{257581FD-6A09-42CC-8EC0-EB9D31233180}" type="CELLRANGE">
+                    <a:fld id="{ABD106C9-2D09-4344-A463-A79D98342435}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1037,7 +1034,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{C033B970-773A-4F30-AC47-75043BD1C9F0}" type="CATEGORYNAME">
+                    <a:fld id="{5B5C6E85-644F-4096-AECF-E7AE288207A3}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1078,7 +1075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFD84288-9F16-4DB4-B4C7-98E231B0F540}" type="CELLRANGE">
+                    <a:fld id="{C5BB1933-6CDB-4C95-9D0D-7617895324C9}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1085,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{BC55AA39-B124-4219-A03B-F7BCB165622F}" type="CATEGORYNAME">
+                    <a:fld id="{3782941B-CA15-4B6B-AD71-35D9668015FE}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1129,7 +1126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{557880EC-3AF7-4206-B83A-B0C11DE86944}" type="CELLRANGE">
+                    <a:fld id="{95C09552-ACF0-476B-A962-A8595C3D027E}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1139,7 +1136,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{A7746CF4-D539-477F-AED0-CA25C631E90C}" type="CATEGORYNAME">
+                    <a:fld id="{3BF04B0D-E20B-457D-8B3E-B64CFBDE04E8}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1180,7 +1177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBA852DD-DCA5-45F9-9CA0-6816F5D8DC81}" type="CELLRANGE">
+                    <a:fld id="{FA692A31-ABCF-4F55-BC69-23CF72EC371B}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1190,7 +1187,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{12817C03-EEA3-47B2-B43B-BD9DBFADECBE}" type="CATEGORYNAME">
+                    <a:fld id="{9FC4214F-C3F1-47BD-A12E-142CE049FEA6}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -2726,8 +2723,8 @@
   </sheetPr>
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2772,7 @@
     <row r="4" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="O4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="7">
         <f>C20</f>
@@ -2785,7 +2782,7 @@
     <row r="5" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7">
         <f>C30</f>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="19" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>1</v>
@@ -2895,14 +2892,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="6"/>
       <c r="K19" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -2928,14 +2925,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="6"/>
       <c r="K20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2946,10 +2943,10 @@
         <v>43935</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="25">
         <v>-5</v>
@@ -2959,14 +2956,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="10"/>
       <c r="K21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2977,10 +2974,10 @@
         <v>43935</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="22">
         <v>5</v>
@@ -2990,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="10"/>
       <c r="K22" s="20"/>
@@ -3004,10 +3001,10 @@
         <v>43936</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="22">
         <v>-5</v>
@@ -3017,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="10"/>
       <c r="K23" s="10"/>
@@ -3031,10 +3028,10 @@
         <v>43942</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="22">
         <v>5</v>
@@ -3044,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="13"/>
       <c r="K24" s="10"/>
@@ -3052,16 +3049,16 @@
     </row>
     <row r="25" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="23">
         <v>43949</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="25">
         <v>-5</v>
@@ -3071,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="14"/>
       <c r="K25" s="14"/>
@@ -3085,10 +3082,10 @@
         <v>43953</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="25">
         <v>5</v>
@@ -3098,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="14"/>
       <c r="K26" s="14"/>
@@ -3113,10 +3110,10 @@
         <v>43953</v>
       </c>
       <c r="D27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="F27" s="25">
         <v>-5</v>
@@ -3126,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="14"/>
       <c r="K27" s="14"/>
@@ -3135,16 +3132,16 @@
     </row>
     <row r="28" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="23">
         <v>43961</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="25">
         <v>5</v>
@@ -3154,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="14"/>
       <c r="K28" s="14"/>
@@ -3169,10 +3166,10 @@
         <v>43961</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>20</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="F29" s="25">
         <v>-5</v>
@@ -3182,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="14"/>
       <c r="K29" s="14"/>
@@ -3210,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="14"/>
       <c r="K30" s="14"/>
@@ -3309,9 +3306,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3343,18 +3338,15 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="J38" r:id="rId1" xr:uid="{563C1FC0-3E70-44A3-B359-7692D73C017D}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B25" twoDigitTextYear="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/04_Projektstrukturplan/Meilensteinplan.xlsx
+++ b/04_Projektstrukturplan/Meilensteinplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7426E6B6-F6E3-42C8-B11D-0E0C3F6874FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071DE9D-C4B0-43CB-9D71-3E1B391FA7F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,10 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -718,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EA144FA-2885-42F0-8232-F8150AFAA295}" type="CELLRANGE">
+                    <a:fld id="{A24CB443-9748-4B11-8BFD-106391E90C26}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -728,7 +724,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{429CC488-ECA6-402A-A634-D4DC43C72A19}" type="CATEGORYNAME">
+                    <a:fld id="{0C3E6F9E-850B-4437-8415-11AB12AE7D11}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -769,7 +765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85832945-5002-4134-9B3C-912E97D4779D}" type="CELLRANGE">
+                    <a:fld id="{E2B62B0E-5900-4E5A-BF4A-EB35D3F90401}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -779,7 +775,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{0532C8F9-AEB1-4803-9B18-63C55E960B24}" type="CATEGORYNAME">
+                    <a:fld id="{7648D54D-1130-4578-AFF1-C74B7ADE7EBA}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -820,7 +816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6461E3BA-CA48-4E79-9ED0-AE4D1B9CCBC8}" type="CELLRANGE">
+                    <a:fld id="{5CE531CA-5323-4F75-9C00-CC200ECD033E}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -830,7 +826,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{E36C0BBB-FDF2-4EC5-90E4-45D35476CD6B}" type="CATEGORYNAME">
+                    <a:fld id="{F4373D1D-1CA8-4A4A-A0C3-4969E3124029}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -871,7 +867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4B4ABF2-4C10-4F7E-B253-881293AC000A}" type="CELLRANGE">
+                    <a:fld id="{FC345909-6D76-472F-A7C5-444FF3657964}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -881,7 +877,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{B7692A6B-6A22-472A-88DB-CCAD80117413}" type="CATEGORYNAME">
+                    <a:fld id="{F51A81C4-94B0-497C-983F-452BD36DF999}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -922,7 +918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81A4BD85-ED1A-4FD9-B813-27938AAEECBD}" type="CELLRANGE">
+                    <a:fld id="{0133BBC5-7014-46F9-9096-E04DE072A6BB}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -932,7 +928,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{60862DCA-7462-4CCB-9532-09F24F9E1D02}" type="CATEGORYNAME">
+                    <a:fld id="{7DD26404-B913-47AE-83B3-34B55F2C1ED7}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -973,7 +969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{682D7FE2-99D0-48CE-9E8F-AA7BD5578858}" type="CELLRANGE">
+                    <a:fld id="{A4239DED-FFEA-41EB-BED8-B1E57D71D0ED}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -983,7 +979,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{FC20C965-9E63-4086-B35F-523A3FDDCD51}" type="CATEGORYNAME">
+                    <a:fld id="{8FA50EA9-4821-4DFF-90F1-F6EFB18FA487}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1024,7 +1020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABD106C9-2D09-4344-A463-A79D98342435}" type="CELLRANGE">
+                    <a:fld id="{AC52C7AB-3D66-464A-A74B-806D6063C50D}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1034,7 +1030,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{5B5C6E85-644F-4096-AECF-E7AE288207A3}" type="CATEGORYNAME">
+                    <a:fld id="{7B876572-85ED-47D4-A679-17AA88895C92}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1075,7 +1071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5BB1933-6CDB-4C95-9D0D-7617895324C9}" type="CELLRANGE">
+                    <a:fld id="{8046A1B3-48F2-4D76-90A7-5ACE8E08AAA9}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1085,7 +1081,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{3782941B-CA15-4B6B-AD71-35D9668015FE}" type="CATEGORYNAME">
+                    <a:fld id="{DAB43085-E2EA-423D-8A62-5FBA299EEE8F}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1126,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95C09552-ACF0-476B-A962-A8595C3D027E}" type="CELLRANGE">
+                    <a:fld id="{C21B6375-D2FD-4C05-B1FE-1ACAC80BCABD}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1136,7 +1132,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{3BF04B0D-E20B-457D-8B3E-B64CFBDE04E8}" type="CATEGORYNAME">
+                    <a:fld id="{AF0C78A2-DE4F-4A71-BB14-F9CB355478D6}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1177,7 +1173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA692A31-ABCF-4F55-BC69-23CF72EC371B}" type="CELLRANGE">
+                    <a:fld id="{1B0AF398-E22A-4642-B1D0-3F83324E280D}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1187,7 +1183,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{9FC4214F-C3F1-47BD-A12E-142CE049FEA6}" type="CATEGORYNAME">
+                    <a:fld id="{C3F3DCED-F54C-4012-927F-89E0DE458E70}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -2724,7 +2720,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2748,20 +2744,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2895,7 +2891,7 @@
         <v>35</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="L19" s="17" t="s">
@@ -2928,7 +2924,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="18" t="s">
@@ -2959,7 +2955,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>33</v>
       </c>
       <c r="L21" s="19" t="s">
@@ -3179,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I29" s="14"/>
       <c r="K29" s="14"/>
@@ -3206,8 +3202,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H30" s="28" t="s">
-        <v>27</v>
+      <c r="H30" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="I30" s="14"/>
       <c r="K30" s="14"/>

--- a/04_Projektstrukturplan/Meilensteinplan.xlsx
+++ b/04_Projektstrukturplan/Meilensteinplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071DE9D-C4B0-43CB-9D71-3E1B391FA7F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5B824-C15C-4B0E-BAB5-973E2D383BAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A24CB443-9748-4B11-8BFD-106391E90C26}" type="CELLRANGE">
+                    <a:fld id="{278E5C8C-2294-4947-A1C3-CB3661260EF2}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -724,7 +724,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{0C3E6F9E-850B-4437-8415-11AB12AE7D11}" type="CATEGORYNAME">
+                    <a:fld id="{AA4859D2-EFC6-4BA7-BE51-C8469EAE43B9}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -765,7 +765,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2B62B0E-5900-4E5A-BF4A-EB35D3F90401}" type="CELLRANGE">
+                    <a:fld id="{7AE5D6E1-9A69-4073-9289-08CAD9CF9833}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -775,7 +775,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7648D54D-1130-4578-AFF1-C74B7ADE7EBA}" type="CATEGORYNAME">
+                    <a:fld id="{993B398F-70BD-411B-8529-1971B1AB15D0}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -816,7 +816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CE531CA-5323-4F75-9C00-CC200ECD033E}" type="CELLRANGE">
+                    <a:fld id="{601449D4-5C3D-43F5-951E-C3C5C8B4EBCC}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -826,7 +826,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{F4373D1D-1CA8-4A4A-A0C3-4969E3124029}" type="CATEGORYNAME">
+                    <a:fld id="{15B3E014-89F5-4396-84BD-27BD4C728F12}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -867,7 +867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC345909-6D76-472F-A7C5-444FF3657964}" type="CELLRANGE">
+                    <a:fld id="{64000349-E6F1-4126-9E86-C28C092D1710}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -877,7 +877,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{F51A81C4-94B0-497C-983F-452BD36DF999}" type="CATEGORYNAME">
+                    <a:fld id="{88F6B321-7E0E-4558-8E66-E2B9F0AE7950}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -918,7 +918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0133BBC5-7014-46F9-9096-E04DE072A6BB}" type="CELLRANGE">
+                    <a:fld id="{CAEF9F7C-4E88-40C5-A00F-0448B2B64873}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -928,7 +928,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7DD26404-B913-47AE-83B3-34B55F2C1ED7}" type="CATEGORYNAME">
+                    <a:fld id="{13019750-4EE8-4A4B-BCBB-94F4EA7DE271}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -969,7 +969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4239DED-FFEA-41EB-BED8-B1E57D71D0ED}" type="CELLRANGE">
+                    <a:fld id="{2E066D4E-647F-48D3-B139-AD08DED55FD1}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -979,7 +979,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{8FA50EA9-4821-4DFF-90F1-F6EFB18FA487}" type="CATEGORYNAME">
+                    <a:fld id="{E045682D-4B10-4C07-8B35-435310F2DA46}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1020,7 +1020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC52C7AB-3D66-464A-A74B-806D6063C50D}" type="CELLRANGE">
+                    <a:fld id="{7C5281EC-56D9-4AE2-8793-E88A4F039B65}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1030,7 +1030,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{7B876572-85ED-47D4-A679-17AA88895C92}" type="CATEGORYNAME">
+                    <a:fld id="{58225161-BC7C-42BC-992C-9911EC82D40E}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1071,7 +1071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8046A1B3-48F2-4D76-90A7-5ACE8E08AAA9}" type="CELLRANGE">
+                    <a:fld id="{142FC424-605E-4404-A3DF-13E87A0BFA40}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1081,7 +1081,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{DAB43085-E2EA-423D-8A62-5FBA299EEE8F}" type="CATEGORYNAME">
+                    <a:fld id="{4D7B7EC6-637B-48DB-9274-2A32F5CE1D32}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1122,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C21B6375-D2FD-4C05-B1FE-1ACAC80BCABD}" type="CELLRANGE">
+                    <a:fld id="{8FA06F88-AA39-4CC5-830E-1D648C466EA7}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1132,7 +1132,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{AF0C78A2-DE4F-4A71-BB14-F9CB355478D6}" type="CATEGORYNAME">
+                    <a:fld id="{93735160-D1B4-4B44-9A84-BBB8F6407508}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -1173,7 +1173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B0AF398-E22A-4642-B1D0-3F83324E280D}" type="CELLRANGE">
+                    <a:fld id="{B341EAEB-815A-4457-9F02-2F469F3EA673}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1183,7 +1183,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{C3F3DCED-F54C-4012-927F-89E0DE458E70}" type="CATEGORYNAME">
+                    <a:fld id="{CB24ECC6-4BE1-49B6-BF21-D71A171512E6}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[RUBRIKENNAME]</a:t>
@@ -2719,8 +2719,8 @@
   </sheetPr>
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.09765625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2738,9 @@
     <col min="11" max="11" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.59765625" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.8984375" style="3" customWidth="1"/>
-    <col min="14" max="19" width="11.59765625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="11.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" style="3" customWidth="1"/>
+    <col min="17" max="19" width="11.59765625" style="3" customWidth="1"/>
     <col min="20" max="24" width="12.5" style="3" customWidth="1"/>
     <col min="25" max="16384" width="9.09765625" style="3"/>
   </cols>
